--- a/data/context-variables/GDP.xlsx
+++ b/data/context-variables/GDP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ekb15182\LocalCodeFolder\TEAM-Kenya\data\context-variables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C0E1117-F1E4-4EF5-A7FF-D034590CB6FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35E2E15-F276-4A87-9D8C-A438BA7DACC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4395" yWindow="3038" windowWidth="9345" windowHeight="5520" firstSheet="2" activeTab="4" xr2:uid="{95FE9214-C0F5-4B03-910F-50BBD4A0F78D}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" firstSheet="1" activeTab="2" xr2:uid="{95FE9214-C0F5-4B03-910F-50BBD4A0F78D}"/>
   </bookViews>
   <sheets>
     <sheet name="Assumptions" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>GDP_GR</t>
   </si>
@@ -114,12 +114,15 @@
   <si>
     <t>GDP_pop_GR</t>
   </si>
+  <si>
+    <t>NHH_tot</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,16 +135,32 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -164,11 +183,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -181,9 +231,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_OMOKA" xfId="1" xr:uid="{EA054C66-5963-4299-985A-80FA45831A0D}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -521,18 +578,18 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.73046875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -540,7 +597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -551,7 +608,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -559,7 +616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -580,9 +637,9 @@
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
@@ -608,7 +665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3.68</v>
       </c>
@@ -637,7 +694,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.5970165650289661</v>
       </c>
@@ -666,7 +723,7 @@
         <v>1.2000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2.5652641790085799</v>
       </c>
@@ -695,7 +752,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.5893600000000032</v>
       </c>
@@ -724,7 +781,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.87832627520384676</v>
       </c>
@@ -753,7 +810,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.63932236680580345</v>
       </c>
@@ -782,7 +839,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.1063150987293429</v>
       </c>
@@ -811,7 +868,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.7821190669606499</v>
       </c>
@@ -840,7 +897,7 @@
         <v>1.1999999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>-2.3618277322790071</v>
       </c>
@@ -869,7 +926,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3.7714568661971799</v>
       </c>
@@ -898,7 +955,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5.5145920267065662E-2</v>
       </c>
@@ -927,7 +984,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2.8547308075772548</v>
       </c>
@@ -956,7 +1013,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2.693005629880751</v>
       </c>
@@ -985,7 +1042,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7.7005732801595173</v>
       </c>
@@ -1014,7 +1071,7 @@
         <v>1.2000000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3.2454337343529178</v>
       </c>
@@ -1043,7 +1100,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>3.2892676887915329</v>
       </c>
@@ -1072,7 +1129,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3.331178689517067</v>
       </c>
@@ -1101,7 +1158,7 @@
         <v>1.1999999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3.3712905577834462</v>
       </c>
@@ -1130,7 +1187,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3.4097167075618979</v>
       </c>
@@ -1159,7 +1216,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3.446561216464215</v>
       </c>
@@ -1188,7 +1245,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>3.4819197670933728</v>
       </c>
@@ -1217,7 +1274,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3.5158804767500311</v>
       </c>
@@ -1246,7 +1303,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3.5485246306432221</v>
       </c>
@@ -1275,7 +1332,7 @@
         <v>1.1999999999999997</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>3.5799273314493258</v>
       </c>
@@ -1304,7 +1361,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3.61015807614594</v>
       </c>
@@ -1333,7 +1390,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>3.6392812694461618</v>
       </c>
@@ -1362,7 +1419,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3.667356681816436</v>
       </c>
@@ -1391,7 +1448,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>3.694439858932999</v>
       </c>
@@ -1420,7 +1477,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3.7205824884792631</v>
       </c>
@@ -1449,7 +1506,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3.7458327293810711</v>
       </c>
@@ -1478,7 +1535,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3.7702355078918259</v>
       </c>
@@ -1507,7 +1564,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3.793832784357694</v>
       </c>
@@ -1536,7 +1593,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3.8166637939949588</v>
       </c>
@@ -1565,7 +1622,7 @@
         <v>1.1999999999999997</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3.838765264586161</v>
       </c>
@@ -1594,7 +1651,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3.8601716136355968</v>
       </c>
@@ -1623,7 +1680,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3.8809151272105602</v>
       </c>
@@ -1652,7 +1709,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3.90102612242254</v>
       </c>
@@ -1681,7 +1738,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3.9205330952684392</v>
       </c>
@@ -1710,7 +1767,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3.9394628553478839</v>
       </c>
@@ -1739,7 +1796,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3.9578406487958868</v>
       </c>
@@ -1768,7 +1825,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3.9756902706165849</v>
       </c>
@@ -1797,7 +1854,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3.9930341674687142</v>
       </c>
@@ -1826,7 +1883,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4.0098935318366458</v>
       </c>
@@ -1855,7 +1912,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4.0262883884176581</v>
       </c>
@@ -1884,7 +1941,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4.0422376734658627</v>
       </c>
@@ -1913,7 +1970,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4.05775930775361</v>
       </c>
@@ -1942,7 +1999,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4.0728702637418124</v>
       </c>
@@ -1971,7 +2028,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4.0875866274879513</v>
       </c>
@@ -2000,7 +2057,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4.1019236557668748</v>
       </c>
@@ -2029,7 +2086,7 @@
         <v>1.2000000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4.1158958288307801</v>
       </c>
@@ -2058,7 +2115,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4.1295168991917031</v>
       </c>
@@ -2087,7 +2144,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4.1427999367722101</v>
       </c>
@@ -2116,7 +2173,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>4.1557573707356346</v>
       </c>
@@ -2145,7 +2202,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4.1684010282776276</v>
       </c>
@@ -2174,7 +2231,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4.1807421706331924</v>
       </c>
@@ -2203,7 +2260,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4.1927915265297777</v>
       </c>
@@ -2232,7 +2289,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4.204559323295225</v>
       </c>
@@ -2261,7 +2318,7 @@
         <v>1.1999999999999997</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4.2160553158101166</v>
       </c>
@@ -2290,7 +2347,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>4.2272888134771414</v>
       </c>
@@ -2319,7 +2376,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4.2382687053635593</v>
       </c>
@@ -2348,7 +2405,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4.2490034836599833</v>
       </c>
@@ -2377,7 +2434,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4.2595012655854534</v>
       </c>
@@ -2406,7 +2463,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4.2697698138575291</v>
       </c>
@@ -2435,7 +2492,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4.2798165558358114</v>
       </c>
@@ -2464,7 +2521,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4.2896486014382518</v>
       </c>
@@ -2493,7 +2550,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4.2992727599209779</v>
       </c>
@@ -2522,7 +2579,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4.3086955556049134</v>
       </c>
@@ -2551,7 +2608,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4.3179232426254011</v>
       </c>
@@ -2580,7 +2637,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4.3269618187751568</v>
       </c>
@@ -2609,7 +2666,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4.335817038504608</v>
       </c>
@@ -2638,7 +2695,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>4.3444944251390893</v>
       </c>
@@ -2667,7 +2724,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4.3529992823673416</v>
       </c>
@@ -2696,7 +2753,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4.3613367050513041</v>
       </c>
@@ -2725,7 +2782,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>4.3695115894039738</v>
       </c>
@@ -2754,7 +2811,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>4.3775286425775128</v>
       </c>
@@ -2783,7 +2840,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4.3853923917015081</v>
       </c>
@@ -2812,7 +2869,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4.3931071924074594</v>
       </c>
@@ -2841,7 +2898,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4.4006772368735616</v>
       </c>
@@ -2870,7 +2927,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4.4081065614208192</v>
       </c>
@@ -2899,7 +2956,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4.4153990536894314</v>
       </c>
@@ -2928,7 +2985,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4.4225584594222767</v>
       </c>
@@ -2957,7 +3014,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4.4295883888803544</v>
       </c>
@@ -2986,7 +3043,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4.4364923229132991</v>
       </c>
@@ -3015,7 +3072,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>4.4432736187063782</v>
       </c>
@@ -3044,7 +3101,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>4.449935515223995</v>
       </c>
@@ -3073,7 +3130,7 @@
         <v>1.1999999999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>4.4564811383680336</v>
       </c>
@@ -3102,7 +3159,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>4.4629135058685243</v>
       </c>
@@ -3131,7 +3188,7 @@
         <v>1.1999999999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>4.4692355319226351</v>
       </c>
@@ -3160,7 +3217,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>4.4754500315969992</v>
       </c>
@@ -3198,17 +3255,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3B642D5-A54F-4D56-A010-623693DF4B6B}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3237,7 +3294,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2012</v>
       </c>
@@ -3270,7 +3327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2013</v>
       </c>
@@ -3305,7 +3362,7 @@
         <v>1.9962707062861957</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2014</v>
       </c>
@@ -3340,7 +3397,7 @@
         <v>3.2065802237607377</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2015</v>
       </c>
@@ -3375,7 +3432,7 @@
         <v>3.2367000000000035</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2016</v>
       </c>
@@ -3410,7 +3467,7 @@
         <v>1.0979078440047987</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2017</v>
       </c>
@@ -3445,7 +3502,7 @@
         <v>0.79915295850724288</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2018</v>
       </c>
@@ -3480,7 +3537,7 @@
         <v>2.7009270416989719</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2019</v>
       </c>
@@ -3515,7 +3572,7 @@
         <v>2.2373755367297199</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2020</v>
       </c>
@@ -3550,7 +3607,7 @@
         <v>-2.9230827449872736</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2021</v>
       </c>
@@ -3585,7 +3642,7 @@
         <v>4.801988886443664</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2022</v>
       </c>
@@ -3620,7 +3677,7 @@
         <v>-2.1247428901585743</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2023</v>
       </c>
@@ -3655,7 +3712,7 @@
         <v>1.8891880608175511</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2024</v>
       </c>
@@ -3690,7 +3747,7 @@
         <v>2.2587614262364681</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2025</v>
       </c>
@@ -3725,7 +3782,7 @@
         <v>8.4316712362911268</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2026</v>
       </c>
@@ -3760,7 +3817,7 @@
         <v>2.9429448151575577</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2027</v>
       </c>
@@ -3795,7 +3852,7 @@
         <v>3.0069264831920774</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2028</v>
       </c>
@@ -3830,7 +3887,7 @@
         <v>3.0196367531318584</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2029</v>
       </c>
@@ -3866,7 +3923,7 @@
         <v>3.0711828290193055</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2030</v>
       </c>
@@ -3902,7 +3959,7 @@
         <v>3.1186887352219443</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2031</v>
       </c>
@@ -3938,7 +3995,7 @@
         <v>3.1642392729179254</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2032</v>
       </c>
@@ -3974,7 +4031,7 @@
         <v>3.2079527336558731</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2033</v>
       </c>
@@ -4010,7 +4067,7 @@
         <v>3.2499380560684967</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2034</v>
       </c>
@@ -4046,7 +4103,7 @@
         <v>3.2902957323346587</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2035</v>
       </c>
@@ -4082,7 +4139,7 @@
         <v>3.3291186112232531</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2036</v>
       </c>
@@ -4118,7 +4175,7 @@
         <v>3.3664926112277591</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2037</v>
       </c>
@@ -4154,7 +4211,7 @@
         <v>3.4024973553204854</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2038</v>
       </c>
@@ -4190,7 +4247,7 @@
         <v>3.437206737195869</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2039</v>
       </c>
@@ -4226,7 +4283,7 @@
         <v>3.4706894274780575</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2040</v>
       </c>
@@ -4262,7 +4319,7 @@
         <v>3.5030093271889329</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2041</v>
       </c>
@@ -4298,7 +4355,7 @@
         <v>3.5342259747789337</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2042</v>
       </c>
@@ -4334,7 +4391,7 @@
         <v>3.5643949121744334</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2043</v>
       </c>
@@ -4370,7 +4427,7 @@
         <v>3.5935680145770417</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2044</v>
       </c>
@@ -4406,7 +4463,7 @@
         <v>3.6217937881347009</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2045</v>
       </c>
@@ -4442,7 +4499,7 @@
         <v>3.6491176390773403</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2046</v>
       </c>
@@ -4478,7 +4535,7 @@
         <v>3.6755821174585082</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2047</v>
       </c>
@@ -4514,7 +4571,7 @@
         <v>3.7012271382552089</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2048</v>
       </c>
@@ -4550,7 +4607,7 @@
         <v>3.7260901822419381</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2049</v>
       </c>
@@ -4586,7 +4643,7 @@
         <v>3.7502064787654517</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2050</v>
       </c>
@@ -4629,250 +4686,408 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912D2E6E-BC5B-48FC-AABB-C727AE59954D}">
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>KUJINAO!I3*1.1</f>
         <v>2.1958977769148156</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <f>KUJINAO!C3*1.1</f>
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>KUJINAO!I4*1.1</f>
         <v>3.5272382461368119</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <f>KUJINAO!C4*1.1</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>KUJINAO!I5*1.1</f>
         <v>3.5603700000000043</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <f>KUJINAO!C5*1.1</f>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>KUJINAO!I6*1.1</f>
         <v>1.2076986284052786</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <f>KUJINAO!C6*1.1</f>
+        <v>4.620000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>KUJINAO!I7*1.1</f>
         <v>0.8790682543579672</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <f>KUJINAO!C7*1.1</f>
+        <v>4.18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>KUJINAO!I8*1.1</f>
         <v>2.9710197458688694</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <f>KUJINAO!C8*1.1</f>
+        <v>6.2370000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>KUJINAO!I9*1.1</f>
         <v>2.4611130904026921</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <f>KUJINAO!C9*1.1</f>
+        <v>5.6210000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>KUJINAO!I10*1.1</f>
         <v>-3.2153910194860011</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <f>KUJINAO!C10*1.1</f>
+        <v>-0.29700000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>KUJINAO!I11*1.1</f>
         <v>5.2821877750880306</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <f>KUJINAO!C11*1.1</f>
+        <v>8.3490000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>KUJINAO!I12*1.1</f>
         <v>-2.3372171791744321</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <f>KUJINAO!C12*1.1</f>
+        <v>5.335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>KUJINAO!I13*1.1</f>
         <v>2.0781068668993066</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <f>KUJINAO!C13*1.1</f>
+        <v>5.4670000000000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>KUJINAO!I14*1.1</f>
         <v>2.4846375688601152</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <f>KUJINAO!C14*1.1</f>
+        <v>5.7860000000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>KUJINAO!I15*1.1</f>
         <v>9.2748383599202402</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <f>KUJINAO!C15*1.1</f>
+        <v>5.8740000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>KUJINAO!I16*1.1</f>
         <v>3.2372392966733137</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <f>KUJINAO!C16*1.1</f>
+        <v>5.8960000000000008</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>KUJINAO!I17*1.1</f>
         <v>3.3076191315112853</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <f>KUJINAO!C17*1.1</f>
+        <v>5.9070000000000009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>KUJINAO!I18*1.1</f>
         <v>3.3216004284450444</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <f>KUJINAO!C18*1.1</f>
+        <v>5.8630000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>KUJINAO!I19*1.1</f>
         <v>3.3783011119212363</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <f>KUJINAO!C19*1.1</f>
+        <v>5.8652000000000015</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>KUJINAO!I20*1.1</f>
         <v>3.430557608744139</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <f>KUJINAO!C20*1.1</f>
+        <v>5.8652000000000015</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>KUJINAO!I21*1.1</f>
         <v>3.4806632002097184</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <f>KUJINAO!C21*1.1</f>
+        <v>5.8652000000000015</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>KUJINAO!I22*1.1</f>
         <v>3.5287480070214605</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <f>KUJINAO!C22*1.1</f>
+        <v>5.8652000000000015</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>KUJINAO!I23*1.1</f>
         <v>3.5749318616753465</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <f>KUJINAO!C23*1.1</f>
+        <v>5.8652000000000015</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>KUJINAO!I24*1.1</f>
         <v>3.6193253055681249</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <f>KUJINAO!C24*1.1</f>
+        <v>5.8652000000000015</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>KUJINAO!I25*1.1</f>
         <v>3.6620304723455788</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <f>KUJINAO!C25*1.1</f>
+        <v>5.8652000000000015</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>KUJINAO!I26*1.1</f>
         <v>3.7031418723505354</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <f>KUJINAO!C26*1.1</f>
+        <v>5.8652000000000015</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>KUJINAO!I27*1.1</f>
         <v>3.742747090852534</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <f>KUJINAO!C27*1.1</f>
+        <v>5.8652000000000015</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>KUJINAO!I28*1.1</f>
         <v>3.780927410915456</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B28">
+        <f>KUJINAO!C28*1.1</f>
+        <v>5.8652000000000015</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>KUJINAO!I29*1.1</f>
         <v>3.8177583702258637</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B29">
+        <f>KUJINAO!C29*1.1</f>
+        <v>5.8652000000000015</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>KUJINAO!I30*1.1</f>
         <v>3.8533102599078264</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B30">
+        <f>KUJINAO!C30*1.1</f>
+        <v>5.8652000000000015</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>KUJINAO!I31*1.1</f>
         <v>3.8876485722568273</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B31">
+        <f>KUJINAO!C31*1.1</f>
+        <v>5.8652000000000015</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>KUJINAO!I32*1.1</f>
         <v>3.9208344033918769</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B32">
+        <f>KUJINAO!C32*1.1</f>
+        <v>5.8652000000000015</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>KUJINAO!I33*1.1</f>
         <v>3.9529248160347463</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B33">
+        <f>KUJINAO!C33*1.1</f>
+        <v>5.8652000000000015</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>KUJINAO!I34*1.1</f>
         <v>3.9839731669481715</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B34">
+        <f>KUJINAO!C34*1.1</f>
+        <v>5.8652000000000015</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>KUJINAO!I35*1.1</f>
         <v>4.0140294029850745</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B35">
+        <f>KUJINAO!C35*1.1</f>
+        <v>5.8652000000000015</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>KUJINAO!I36*1.1</f>
         <v>4.0431403292043591</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B36">
+        <f>KUJINAO!C36*1.1</f>
+        <v>5.8652000000000015</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>KUJINAO!I37*1.1</f>
         <v>4.0713498520807301</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B37">
+        <f>KUJINAO!C37*1.1</f>
+        <v>5.8652000000000015</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>KUJINAO!I38*1.1</f>
         <v>4.0986992004661325</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B38">
+        <f>KUJINAO!C38*1.1</f>
+        <v>5.8652000000000015</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>KUJINAO!I39*1.1</f>
         <v>4.1252271266419971</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B39">
+        <f>KUJINAO!C39*1.1</f>
+        <v>5.8652000000000015</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>KUJINAO!I40*1.1</f>
         <v>4.1509700895241082</v>
+      </c>
+      <c r="B40">
+        <f>KUJINAO!C40*1.1</f>
+        <v>5.8652000000000015</v>
       </c>
     </row>
   </sheetData>
@@ -4882,250 +5097,657 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AED980B-19C0-44B1-9ECE-34D85729A7A7}">
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <f>KUJINAO!C2*1.2</f>
+        <v>1.2</v>
+      </c>
+      <c r="E2" s="7">
+        <v>13534416</v>
+      </c>
+      <c r="F2">
+        <f>E2/E$2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>KUJINAO!I3*1.2</f>
         <v>2.395524847543435</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <f>KUJINAO!C3*1.2</f>
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="E3" s="7">
+        <v>14031514</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F36" si="0">E3/E$2</f>
+        <v>1.0367284410350621</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>KUJINAO!I4*1.2</f>
         <v>3.8478962685128852</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <f>KUJINAO!C4*1.2</f>
+        <v>6</v>
+      </c>
+      <c r="E4" s="7">
+        <v>14535376</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>1.0739566450447511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>KUJINAO!I5*1.2</f>
         <v>3.8840400000000042</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <f>KUJINAO!C5*1.2</f>
+        <v>6</v>
+      </c>
+      <c r="E5" s="7">
+        <v>15046140</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>1.1116948082577038</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>KUJINAO!I6*1.2</f>
         <v>1.3174894128057584</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <f>KUJINAO!C6*1.2</f>
+        <v>5.04</v>
+      </c>
+      <c r="E6" s="7">
+        <v>15563948</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1.1499534224454162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>KUJINAO!I7*1.2</f>
         <v>0.95898355020869142</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <f>KUJINAO!C7*1.2</f>
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="E7" s="7">
+        <v>16088949</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1.188743496579387</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>KUJINAO!I8*1.2</f>
         <v>3.241112450038766</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <f>KUJINAO!C8*1.2</f>
+        <v>6.8039999999999994</v>
+      </c>
+      <c r="E8" s="7">
+        <v>17315638</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>1.2793782901308781</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>KUJINAO!I9*1.2</f>
         <v>2.6848506440756639</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <f>KUJINAO!C9*1.2</f>
+        <v>6.1320000000000006</v>
+      </c>
+      <c r="E9" s="7">
+        <v>17922570</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1.3242218947607345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>KUJINAO!I10*1.2</f>
         <v>-3.5076992939847282</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <f>KUJINAO!C10*1.2</f>
+        <v>-0.32400000000000001</v>
+      </c>
+      <c r="E10" s="7">
+        <v>18535200</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1.369486500193285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>KUJINAO!I11*1.2</f>
         <v>5.7623866637323964</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <f>KUJINAO!C11*1.2</f>
+        <v>9.1079999999999988</v>
+      </c>
+      <c r="E11" s="7">
+        <v>18049082</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1.3335693243062723</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>KUJINAO!I12*1.2</f>
         <v>-2.5496914681902889</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <f>KUJINAO!C12*1.2</f>
+        <v>5.8199999999999994</v>
+      </c>
+      <c r="E12" s="7">
+        <v>18516434</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1.3680999608701254</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>KUJINAO!I13*1.2</f>
         <v>2.2670256729810614</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <f>KUJINAO!C13*1.2</f>
+        <v>5.9639999999999995</v>
+      </c>
+      <c r="E13" s="7">
+        <v>18985996</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1.4027938848635952</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>KUJINAO!I14*1.2</f>
         <v>2.7105137114837619</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <f>KUJINAO!C14*1.2</f>
+        <v>6.3119999999999994</v>
+      </c>
+      <c r="E14" s="7">
+        <v>19457784</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1.4376522784581174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>KUJINAO!I15*1.2</f>
         <v>10.118005483549352</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <f>KUJINAO!C15*1.2</f>
+        <v>6.4079999999999995</v>
+      </c>
+      <c r="E15" s="7">
+        <v>19931814</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1.4726763238251284</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>KUJINAO!I16*1.2</f>
         <v>3.5315337781890692</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <f>KUJINAO!C16*1.2</f>
+        <v>6.4320000000000004</v>
+      </c>
+      <c r="E16" s="7">
+        <v>20408100</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1.5078670553646349</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>KUJINAO!I17*1.2</f>
         <v>3.6083117798304927</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <f>KUJINAO!C17*1.2</f>
+        <v>6.444</v>
+      </c>
+      <c r="E17" s="7">
+        <v>20886660</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1.5432258030195023</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>KUJINAO!I18*1.2</f>
         <v>3.62356410375823</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <f>KUJINAO!C18*1.2</f>
+        <v>6.3959999999999999</v>
+      </c>
+      <c r="E18" s="7">
+        <v>21367508</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>1.5787536011897374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>KUJINAO!I19*1.2</f>
         <v>3.6854193948231666</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <f>KUJINAO!C19*1.2</f>
+        <v>6.3984000000000005</v>
+      </c>
+      <c r="E19" s="7">
+        <v>21850664</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>1.6144519275896352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>KUJINAO!I20*1.2</f>
         <v>3.7424264822663331</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <f>KUJINAO!C20*1.2</f>
+        <v>6.3984000000000005</v>
+      </c>
+      <c r="E20" s="7">
+        <v>22336142</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>1.6503218166192024</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>KUJINAO!I21*1.2</f>
         <v>3.7970871275015101</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <f>KUJINAO!C21*1.2</f>
+        <v>6.3984000000000005</v>
+      </c>
+      <c r="E21" s="7">
+        <v>22823962</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>1.6863647459927344</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>KUJINAO!I22*1.2</f>
         <v>3.8495432803870475</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <f>KUJINAO!C22*1.2</f>
+        <v>6.3984000000000005</v>
+      </c>
+      <c r="E22" s="7">
+        <v>23314136</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>1.7225816023388079</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>KUJINAO!I23*1.2</f>
         <v>3.8999256672821958</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <f>KUJINAO!C23*1.2</f>
+        <v>6.3984000000000005</v>
+      </c>
+      <c r="E23" s="7">
+        <v>23806684</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>1.7589738633717185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>KUJINAO!I24*1.2</f>
         <v>3.9483548788015903</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <f>KUJINAO!C24*1.2</f>
+        <v>6.3984000000000005</v>
+      </c>
+      <c r="E24" s="7">
+        <v>24301624</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>1.7955428590343314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>KUJINAO!I25*1.2</f>
         <v>3.9949423334679035</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <f>KUJINAO!C25*1.2</f>
+        <v>6.3984000000000005</v>
+      </c>
+      <c r="E25" s="7">
+        <v>24798972</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>1.832289771498083</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>KUJINAO!I26*1.2</f>
         <v>4.0397911334733108</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <f>KUJINAO!C26*1.2</f>
+        <v>6.3984000000000005</v>
+      </c>
+      <c r="E26" s="7">
+        <v>25298746</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>1.8692159307058391</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>KUJINAO!I27*1.2</f>
         <v>4.0829968263845826</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <f>KUJINAO!C27*1.2</f>
+        <v>6.3984000000000005</v>
+      </c>
+      <c r="E27" s="7">
+        <v>25800964</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>1.9063226666004651</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>KUJINAO!I28*1.2</f>
         <v>4.1246480846350426</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B28">
+        <f>KUJINAO!C28*1.2</f>
+        <v>6.3984000000000005</v>
+      </c>
+      <c r="E28" s="7">
+        <v>26305644</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>1.9436113091248266</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>KUJINAO!I29*1.2</f>
         <v>4.164827312973669</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B29">
+        <f>KUJINAO!C29*1.2</f>
+        <v>6.3984000000000005</v>
+      </c>
+      <c r="E29" s="7">
+        <v>26812804</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>1.9810831882217896</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>KUJINAO!I30*1.2</f>
         <v>4.2036111926267195</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B30">
+        <f>KUJINAO!C30*1.2</f>
+        <v>6.3984000000000005</v>
+      </c>
+      <c r="E30" s="7">
+        <v>27322462</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>2.0187396338342194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>KUJINAO!I31*1.2</f>
         <v>4.2410711697347203</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B31">
+        <f>KUJINAO!C31*1.2</f>
+        <v>6.3984000000000005</v>
+      </c>
+      <c r="E31" s="7">
+        <v>27834638</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>2.0565821236764115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>KUJINAO!I32*1.2</f>
         <v>4.2772738946093201</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B32">
+        <f>KUJINAO!C32*1.2</f>
+        <v>6.3984000000000005</v>
+      </c>
+      <c r="E32" s="7">
+        <v>28349348</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>2.0946118399198017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>KUJINAO!I33*1.2</f>
         <v>4.3122816174924496</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B33">
+        <f>KUJINAO!C33*1.2</f>
+        <v>6.3984000000000005</v>
+      </c>
+      <c r="E33" s="7">
+        <v>28866612</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>2.1328302602786851</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>KUJINAO!I34*1.2</f>
         <v>4.3461525457616412</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B34">
+        <f>KUJINAO!C34*1.2</f>
+        <v>6.3984000000000005</v>
+      </c>
+      <c r="E34" s="7">
+        <v>29386452</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>2.1712390102387866</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>KUJINAO!I35*1.2</f>
         <v>4.3789411668928082</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B35">
+        <f>KUJINAO!C35*1.2</f>
+        <v>6.3984000000000005</v>
+      </c>
+      <c r="E35" s="7">
+        <v>29908882</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>2.2098391242001134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>KUJINAO!I36*1.2</f>
         <v>4.41069854095021</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B36">
+        <f>KUJINAO!C36*1.2</f>
+        <v>6.3984000000000005</v>
+      </c>
+      <c r="E36" s="7">
+        <v>30433926</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>2.2486323754198185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>KUJINAO!I37*1.2</f>
         <v>4.4414725659062508</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B37">
+        <f>KUJINAO!C37*1.2</f>
+        <v>6.3984000000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>KUJINAO!I38*1.2</f>
         <v>4.4713082186903259</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B38">
+        <f>KUJINAO!C38*1.2</f>
+        <v>6.3984000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>KUJINAO!I39*1.2</f>
         <v>4.5002477745185416</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B39">
+        <f>KUJINAO!C39*1.2</f>
+        <v>6.3984000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>KUJINAO!I40*1.2</f>
         <v>4.5283310067535716</v>
+      </c>
+      <c r="B40">
+        <f>KUJINAO!C40*1.2</f>
+        <v>6.3984000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -5135,250 +5757,408 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BBB7BCB-FB8B-4AE0-BF40-91DEF7581BE8}">
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>KUJINAO!I3*0.8</f>
         <v>1.5970165650289567</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B3">
+        <f>KUJINAO!C3*0.8</f>
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>KUJINAO!I4*0.8</f>
         <v>2.5652641790085902</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B4">
+        <f>KUJINAO!C4*0.8</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>KUJINAO!I5*0.8</f>
         <v>2.5893600000000028</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <f>KUJINAO!C5*0.8</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>KUJINAO!I6*0.8</f>
         <v>0.87832627520383899</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <f>KUJINAO!C6*0.8</f>
+        <v>3.3600000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>KUJINAO!I7*0.8</f>
         <v>0.63932236680579435</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <f>KUJINAO!C7*0.8</f>
+        <v>3.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>KUJINAO!I8*0.8</f>
         <v>2.1607416333591778</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <f>KUJINAO!C8*0.8</f>
+        <v>4.5360000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>KUJINAO!I9*0.8</f>
         <v>1.7899004293837759</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <f>KUJINAO!C9*0.8</f>
+        <v>4.0880000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>KUJINAO!I10*0.8</f>
         <v>-2.338466195989819</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B10">
+        <f>KUJINAO!C10*0.8</f>
+        <v>-0.21600000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>KUJINAO!I11*0.8</f>
         <v>3.8415911091549315</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <f>KUJINAO!C11*0.8</f>
+        <v>6.0720000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>KUJINAO!I12*0.8</f>
         <v>-1.6997943121268595</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B12">
+        <f>KUJINAO!C12*0.8</f>
+        <v>3.88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>KUJINAO!I13*0.8</f>
         <v>1.511350448654041</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B13">
+        <f>KUJINAO!C13*0.8</f>
+        <v>3.976</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>KUJINAO!I14*0.8</f>
         <v>1.8070091409891746</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B14">
+        <f>KUJINAO!C14*0.8</f>
+        <v>4.2080000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>KUJINAO!I15*0.8</f>
         <v>6.7453369890329018</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B15">
+        <f>KUJINAO!C15*0.8</f>
+        <v>4.2720000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>KUJINAO!I16*0.8</f>
         <v>2.3543558521260461</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B16">
+        <f>KUJINAO!C16*0.8</f>
+        <v>4.2880000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>KUJINAO!I17*0.8</f>
         <v>2.4055411865536622</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B17">
+        <f>KUJINAO!C17*0.8</f>
+        <v>4.2960000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>KUJINAO!I18*0.8</f>
         <v>2.4157094025054868</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B18">
+        <f>KUJINAO!C18*0.8</f>
+        <v>4.2640000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>KUJINAO!I19*0.8</f>
         <v>2.4569462632154444</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B19">
+        <f>KUJINAO!C19*0.8</f>
+        <v>4.2656000000000009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>KUJINAO!I20*0.8</f>
         <v>2.4949509881775556</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B20">
+        <f>KUJINAO!C20*0.8</f>
+        <v>4.2656000000000009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>KUJINAO!I21*0.8</f>
         <v>2.5313914183343407</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B21">
+        <f>KUJINAO!C21*0.8</f>
+        <v>4.2656000000000009</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>KUJINAO!I22*0.8</f>
         <v>2.5663621869246986</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B22">
+        <f>KUJINAO!C22*0.8</f>
+        <v>4.2656000000000009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>KUJINAO!I23*0.8</f>
         <v>2.5999504448547976</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B23">
+        <f>KUJINAO!C23*0.8</f>
+        <v>4.2656000000000009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>KUJINAO!I24*0.8</f>
         <v>2.632236585867727</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B24">
+        <f>KUJINAO!C24*0.8</f>
+        <v>4.2656000000000009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>KUJINAO!I25*0.8</f>
         <v>2.6632948889786028</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B25">
+        <f>KUJINAO!C25*0.8</f>
+        <v>4.2656000000000009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>KUJINAO!I26*0.8</f>
         <v>2.6931940889822075</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B26">
+        <f>KUJINAO!C26*0.8</f>
+        <v>4.2656000000000009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <f>KUJINAO!I27*0.8</f>
         <v>2.7219978842563886</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B27">
+        <f>KUJINAO!C27*0.8</f>
+        <v>4.2656000000000009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>KUJINAO!I28*0.8</f>
         <v>2.7497653897566954</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B28">
+        <f>KUJINAO!C28*0.8</f>
+        <v>4.2656000000000009</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>KUJINAO!I29*0.8</f>
         <v>2.776551541982446</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B29">
+        <f>KUJINAO!C29*0.8</f>
+        <v>4.2656000000000009</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>KUJINAO!I30*0.8</f>
         <v>2.8024074617511463</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B30">
+        <f>KUJINAO!C30*0.8</f>
+        <v>4.2656000000000009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>KUJINAO!I31*0.8</f>
         <v>2.8273807798231472</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B31">
+        <f>KUJINAO!C31*0.8</f>
+        <v>4.2656000000000009</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>KUJINAO!I32*0.8</f>
         <v>2.8515159297395467</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B32">
+        <f>KUJINAO!C32*0.8</f>
+        <v>4.2656000000000009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>KUJINAO!I33*0.8</f>
         <v>2.8748544116616337</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B33">
+        <f>KUJINAO!C33*0.8</f>
+        <v>4.2656000000000009</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>KUJINAO!I34*0.8</f>
         <v>2.897435030507761</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B34">
+        <f>KUJINAO!C34*0.8</f>
+        <v>4.2656000000000009</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>KUJINAO!I35*0.8</f>
         <v>2.9192941112618724</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B35">
+        <f>KUJINAO!C35*0.8</f>
+        <v>4.2656000000000009</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>KUJINAO!I36*0.8</f>
         <v>2.9404656939668068</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B36">
+        <f>KUJINAO!C36*0.8</f>
+        <v>4.2656000000000009</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>KUJINAO!I37*0.8</f>
         <v>2.9609817106041674</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B37">
+        <f>KUJINAO!C37*0.8</f>
+        <v>4.2656000000000009</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>KUJINAO!I38*0.8</f>
         <v>2.9808721457935508</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B38">
+        <f>KUJINAO!C38*0.8</f>
+        <v>4.2656000000000009</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>KUJINAO!I39*0.8</f>
         <v>3.0001651830123617</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B39">
+        <f>KUJINAO!C39*0.8</f>
+        <v>4.2656000000000009</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>KUJINAO!I40*0.8</f>
         <v>3.0188873378357148</v>
+      </c>
+      <c r="B40">
+        <f>KUJINAO!C40*0.8</f>
+        <v>4.2656000000000009</v>
       </c>
     </row>
   </sheetData>
